--- a/HW2/Exercise1.xlsx
+++ b/HW2/Exercise1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/Dropbox/MSiA/Optimization/Homework/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B2529-755F-2345-84B8-306A144BBE3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E106E637-5043-E240-B077-8651D459A8BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{A9C8A829-B3DF-E146-95DD-6F109BCE56DA}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" activeTab="4" xr2:uid="{A9C8A829-B3DF-E146-95DD-6F109BCE56DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Solution" sheetId="7" r:id="rId1"/>
     <sheet name="Solution_d" sheetId="9" r:id="rId2"/>
     <sheet name="Solution_e" sheetId="8" r:id="rId3"/>
     <sheet name="Solution_f" sheetId="10" r:id="rId4"/>
-    <sheet name="OLD_wrong" sheetId="2" r:id="rId5"/>
+    <sheet name="Alternative_solution" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="4" hidden="1">CBC</definedName>
@@ -40,7 +40,7 @@
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">OLD_wrong!$L$7:$M$7</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Alternative_solution!$C$3:$C$4,Alternative_solution!$C$6,Alternative_solution!$C$8:$C$9,Alternative_solution!$L$7:$M$7</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Solution!$C$3:$C$10,Solution!$L$7:$M$7</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Solution_d!$C$3:$C$10,Solution_d!$L$7:$M$7</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Solution_e!$C$3:$C$10,Solution_e!$L$7:$M$7</definedName>
@@ -65,31 +65,37 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">OLD_wrong!$L$7:$M$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Alternative_solution!$L$7:$M$7</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Solution!$L$7:$M$7</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Solution_d!$L$7:$M$7</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Solution_e!$L$7:$M$7</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solution_f!$M$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">OLD_wrong!$N$16:$N$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Alternative_solution!$C$3:$C$4</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Solution!$C$3:$C$10</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Solution_d!$C$3:$C$10</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Solution_e!$C$3:$C$10</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solution_f!$C$3:$C$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Alternative_solution!$C$6</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Solution!$C$3:$C$10</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Solution_d!$C$3:$C$10</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Solution_e!$C$3:$C$10</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Solution_f!$C$3:$C$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Alternative_solution!$C$8:$C$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Solution!$N$16:$N$18</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Solution_d!$N$16:$N$18</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Solution_e!$N$16:$N$18</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">Solution_f!$N$16:$N$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Alternative_solution!$N$16:$N$18</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">Solution_f!$L$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Alternative_solution!$C$3:$C$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Alternative_solution!$C$8:$C$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Alternative_solution!$N$16:$N$18</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
@@ -99,7 +105,7 @@
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">OLD_wrong!$N$10</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Alternative_solution!$N$10</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Solution!$N$10</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Solution_d!$N$10</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Solution_e!$N$10</definedName>
@@ -114,34 +120,46 @@
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">OLD_wrong!$O$16:$O$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Alternative_solution!$E$3:$E$4</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Alternative_solution!$E$6</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Solution!$E$3:$E$10</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Solution_d!$E$3:$E$10</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Solution_e!$E$3:$E$10</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">Solution_f!$E$3:$E$10</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Alternative_solution!$E$8:$E$9</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Solution!$O$16:$O$18</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">Solution_d!$O$16:$O$18</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">Solution_e!$O$16:$O$18</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">Solution_f!$O$16:$O$18</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Alternative_solution!$O$16:$O$18</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">40</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">Alternative_solution!$E$8:$E$9</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Alternative_solution!$O$16:$O$18</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -271,13 +289,13 @@
     <t>Outputs</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Total Bought</t>
   </si>
   <si>
     <t>Revenue per Unit</t>
+  </si>
+  <si>
+    <t>Constraints</t>
   </si>
 </sst>
 </file>
@@ -5065,6 +5083,270 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="OpenSolver1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EF2002-3EC3-834E-AA13-7E4DEA5B8D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="406400"/>
+          <a:ext cx="825500" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="OpenSolver2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179211F7-8E18-A547-A2C9-B2832D47CD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="1016000"/>
+          <a:ext cx="825500" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="OpenSolver3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE49A919-E663-0E4D-8EB8-13B540CB3651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="1422400"/>
+          <a:ext cx="825500" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF">
+            <a:alpha val="40000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -5078,10 +5360,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="OpenSolver1">
+        <xdr:cNvPr id="109" name="OpenSolver4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D79CA4-B865-F249-9A97-F8E1136A8ED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792D40B9-D586-284F-8286-FD233332286C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,10 +5448,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="OpenSolver2">
+        <xdr:cNvPr id="110" name="OpenSolver5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD70562-4CB1-F843-866F-B136D34A07D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09C1B3F-E01D-C44A-A1DA-1575C781C4D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,10 +5530,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="OpenSolver3">
+        <xdr:cNvPr id="111" name="OpenSolver6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48ABC49-F028-3942-B228-1A482DAAB18D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449B02C7-AA8F-DB4B-8B4B-30F8DF5A333C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5341,10 +5623,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="OpenSolverL7:M7">
+        <xdr:cNvPr id="112" name="OpenSolverL7:M7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA78C497-8FE5-4D49-BEE5-46F0EB7A8E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414B7FAD-0FBF-5E45-A88E-DCDE113ECC80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5413,23 +5695,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="OpenSolver5">
+        <xdr:cNvPr id="113" name="OpenSolver8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60C5E1B-446B-4E4D-859C-A5A08B25E756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893B3766-EFF6-1146-8500-8B309CE978CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5437,8 +5719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="3048000"/>
-          <a:ext cx="927100" cy="609600"/>
+          <a:off x="1981200" y="419100"/>
+          <a:ext cx="812800" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5495,6 +5777,951 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="OpenSolver9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F48C913-8B8D-BF4D-AE3C-AC34B1E98007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="406400"/>
+          <a:ext cx="965200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="OpenSolver10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1FBBBF-A888-FD46-B4BB-F897832339D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="3"/>
+          <a:endCxn id="114" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2794000" y="609600"/>
+          <a:ext cx="825500" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="OpenSolver11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C149884-5B88-1E46-B899-28EB2A29AE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3016250" y="485775"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="OpenSolver12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79973181-1BF4-A249-B4F8-1D0347B8BCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1028700"/>
+          <a:ext cx="812800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="9900CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="OpenSolver13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B881E5DC-ED1B-1340-A46D-FC8A79D722BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="1016000"/>
+          <a:ext cx="965200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="OpenSolver14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138A52A7-92F9-0540-ACD7-86EF834B3427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="3"/>
+          <a:endCxn id="118" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2794000" y="1117600"/>
+          <a:ext cx="825500" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="OpenSolver15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182185FE-136F-B84D-BFA0-F8E25947EDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3016250" y="993775"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="OpenSolver16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91958DA-7BD1-3A4E-88E7-EB0D2FA443C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1435100"/>
+          <a:ext cx="812800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="800000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="OpenSolver17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C426DB9-9DD8-AA4D-91EB-B6B1709437C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="1422400"/>
+          <a:ext cx="965200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>≤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="OpenSolver18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312A118A-27F3-534C-ADC4-7AF9C197D759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="3"/>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2794000" y="1625600"/>
+          <a:ext cx="825500" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="800000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="OpenSolver19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C341AAEB-E38E-FC48-B10A-DE2793119B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3016250" y="1501775"/>
+          <a:ext cx="381000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="OpenSolver20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52379FE6-F097-BA44-88CD-920EB730A867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696700" y="3048000"/>
+          <a:ext cx="927100" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00CC33"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00CC33"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -5508,10 +6735,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="OpenSolver6">
+        <xdr:cNvPr id="126" name="OpenSolver21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDA596D-F26B-394E-8C19-97694698B6D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04B2AF3-1B92-5942-905E-295D9C69145C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5528,7 +6755,7 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="008000"/>
+            <a:srgbClr val="00CC33"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -5568,7 +6795,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:srgbClr val="00CC33"/>
               </a:solidFill>
             </a:rPr>
             <a:t>≤</a:t>
@@ -5593,16 +6820,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="OpenSolver7">
+        <xdr:cNvPr id="127" name="OpenSolver22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD89AAD-7A22-E242-B8F0-81FF109108C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E26E1BD-973A-8241-BA21-E1B1ED100744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
+          <a:stCxn id="125" idx="3"/>
+          <a:endCxn id="126" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5615,7 +6842,7 @@
         </a:prstGeom>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="008000"/>
+            <a:srgbClr val="00CC33"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:headEnd type="none"/>
@@ -5654,10 +6881,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="OpenSolver8">
+        <xdr:cNvPr id="128" name="OpenSolver23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4302C493-3F98-AB45-8027-72A5BE6547C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A5F76D-DC7B-1146-9B20-62C4287AF6F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5721,6 +6948,91 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="OpenSolverC3:C10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A74D226-1AED-FD44-823F-703CC8D47C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="406400"/>
+          <a:ext cx="825500" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0≤</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6028,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A843F18A-9E69-134F-88F4-79EF1DE3BD73}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6253,7 +7565,7 @@
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -6657,7 +7969,7 @@
         <v>1190</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -6744,7 +8056,7 @@
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -7011,7 +8323,7 @@
   <dimension ref="B2:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7235,7 +8547,7 @@
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -7502,7 +8814,7 @@
   <dimension ref="B2:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7726,7 +9038,7 @@
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -7984,17 +9296,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16DDAA-9863-1943-BB34-385BDB2D1B9B}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C43E68-2056-854C-9933-5B1F56D095B2}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8025,7 +9337,6 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>MIN(N16,E3)</f>
         <v>480</v>
       </c>
       <c r="D3">
@@ -8041,7 +9352,6 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>MAX(0, MIN(E4,N16-E3))</f>
         <v>500</v>
       </c>
       <c r="D4">
@@ -8057,12 +9367,12 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>MAX(0, MIN(E5,N16-E4-E3))</f>
-        <v>370</v>
+        <f>N16-C4-C3</f>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>C5*E16</f>
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>9999019</v>
@@ -8073,7 +9383,6 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>MIN(N17,E6)</f>
         <v>160</v>
       </c>
       <c r="D6">
@@ -8101,7 +9410,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>MAX(0, MIN(E7,N17-E6))</f>
+        <f>N17-C6</f>
         <v>200</v>
       </c>
       <c r="D7">
@@ -8115,10 +9424,10 @@
         <v>23</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -8126,7 +9435,6 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>MIN(N18,E8)</f>
         <v>1190</v>
       </c>
       <c r="D8">
@@ -8151,12 +9459,11 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>MAX(0, MIN(E9,N18-E8))</f>
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="D9">
         <f>C9*D18</f>
-        <v>915</v>
+        <v>1500</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -8166,11 +9473,11 @@
       </c>
       <c r="L9">
         <f>L8*L7</f>
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="M9">
         <f>M8*M7</f>
-        <v>9000</v>
+        <v>5300</v>
       </c>
       <c r="N9">
         <f>SUM(L9:M9)</f>
@@ -8182,25 +9489,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>MAX(0, MIN(E10,N18-E9-E8))</f>
-        <v>0</v>
+        <f>N18-C9-C8</f>
+        <v>165</v>
       </c>
       <c r="D10">
         <f>C10*E18</f>
-        <v>0</v>
+        <v>255.75</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
       <c r="N10">
         <f>N9-D11</f>
-        <v>1028</v>
+        <v>1112.25</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="D11">
         <f>SUM(D3:D10)</f>
-        <v>7972</v>
+        <v>7887.75</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -8229,7 +9536,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -8255,8 +9562,8 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <f>SUMPRODUCT($L$7:$M$7,L16:M16)</f>
-        <v>1350</v>
+        <f>SUMPRODUCT(L16:M16,L$7:M$7)</f>
+        <v>980</v>
       </c>
       <c r="O16">
         <f>SUM(E3:E5)</f>
@@ -8283,7 +9590,7 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N18" si="0">SUMPRODUCT($L$7:$M$7,L17:M17)</f>
+        <f>SUMPRODUCT(L17:M17,L$7:M$7)</f>
         <v>360</v>
       </c>
       <c r="O17">
@@ -8314,8 +9621,8 @@
         <v>20</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <f>SUMPRODUCT(L18:M18,L$7:M$7)</f>
+        <v>2355</v>
       </c>
       <c r="O18">
         <f>SUM(E8:E10)</f>
